--- a/consolidacao/CABL_consolidacao.xlsx
+++ b/consolidacao/CABL_consolidacao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,76 +483,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>32.03.161</t>
+          <t>30.07.1103</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABSORVENTE HIGIENICO , TIPO NORMAL COM ABAS , FORMATO TRADICIONAL E APRESENTAÇÃO NA EMBALAGEM.</t>
+          <t>CAFÉ, apresentação pó, tipo embalagem a vácuo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>625</v>
+        <v>64</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>03 - MATERIAL DESTINADO A ASSISTENCIA SOCIAL</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>07 - GENEROS DE ALIMENTACAO</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CAFÉ, apresentação pó, tipo embalagem a vácuo</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>54</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30.07.1103</t>
+          <t>30.07.1350</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CAFÉ, apresentação pó, tipo embalagem a vácuo</t>
+          <t>ÁGUA MINERAL NATURAL, SEM GÁS, MATERIAL EMBALAGEM PLÁSTICO, TIPO EMBALAGEM RETORNÁVEL, Garrafão 20 L</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>991</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>07 - GENEROS DE ALIMENTACAO</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CAFÉ, apresentação pó, tipo embalagem a vácuo</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>49</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -580,12 +580,22 @@
           <t>07 - GENEROS DE ALIMENTACAO</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Açucar cristal 1KG</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>46</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -615,7 +625,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ADOÇANTE ASPECTO FISICO LÍQUIDO TRANSPARENTE, INGREDIENTES SUCRALOSEPRAZO VAL. 1 ANO, TIPO DIETÉTICO, CARACT. ADICIONAIS BICO DOSADOR MARCA GOLD.</t>
+          <t>ADOÇANTE ASPECTO FISICO LÍQUIDO TRANSPARENTE, INGREDIENTES SUCRALOSEPRAZO VAL. 1 ANO, TIPO DIETÉTICO, CARACT. ADICIONAIS BICO DOSADOR</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -623,7 +633,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -635,12 +645,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30.07.835</t>
+          <t>30.16.1026</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AÇÚCAR, TIPO CRISTAL, PACOTE DE 1KG.</t>
+          <t>GRAMPEADOR DE METAL, TIPO PROFISSIONAL CAPACIDADE 240/260 FOLHAS, GRAMPO 23/6 A 23/24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -653,20 +663,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>07 - GENEROS DE ALIMENTACAO</t>
+          <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AÇÚCAR, TIPO CRISTAL, PACOTE DE 1KG.</t>
+          <t>GRAMPEADOR DE METAL, TIPO PROFISSIONAL CAPACIDADE 240/260 FOLHAS, GRAMPO 23/6 A 23/24</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -678,12 +688,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30.16.1026</t>
+          <t>30.16.1060</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GRAMPEADOR DE METAL, TIPO PROFISSIONAL CAPACIDADE 240/260 FOLHAS, GRAMPO 23/6 A 23/24</t>
+          <t>PINCEL ATOMICO COR AZUL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -692,7 +702,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -701,11 +711,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>GRAMPEADOR DE METAL, TIPO PROFISSIONAL CAPACIDADE 240/260 FOLHAS, GRAMPO 23/6 A 23/24</t>
+          <t>PINCEL Marcador de Quadro Branco COR AZUL</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -721,12 +731,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30.16.1060</t>
+          <t>30.16.1061</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PINCEL ATOMICO COR AZUL</t>
+          <t>PINCEL ATOMICO COR PRETA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -735,7 +745,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -744,11 +754,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>PINCEL para quadro branco COR AZUL</t>
+          <t>Marcador de Quadro Branco Preto</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -764,21 +774,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30.16.1061</t>
+          <t>30.16.1139</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PINCEL ATOMICO COR PRETA</t>
+          <t>CLIPE DE METAL TAM. 2/0, CX C/ 100 UND.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -787,11 +797,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">PINCEl marcador para quadro branco preto </t>
+          <t>CLIPE DE METAL TAM. 2/0, CX C/ 100 UND.</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -807,21 +817,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30.16.1096</t>
+          <t>30.16.1178</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COLCHETE (BAILARINA), Nº 15, COMPRIMENTO DA HASTE 10CM, DIÂMETRO DA CABEÇA 14MM, PARA FIXAR ATÉ 450 FOLHAS, MATERIAL LATÃO, CAIXA COM 72 UNIDADES.</t>
+          <t>APAGADOR PARA QUADRO BRANCO, BASE FELTRO, CORPO PLÁSTICO, 15CMX6CM.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -830,11 +840,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>COLCHETE (BAILARINA), Nº 15, COMPRIMENTO DA HASTE 10CM, DIÂMETRO DA CABEÇA 14MM, PARA FIXAR ATÉ 450 FOLHAS, MATERIAL LATÃO, CAIXA COM 72 UNIDADES.</t>
+          <t>APAGADOR PARA QUADRO BRANCO, BASE FELTRO, CORPO PLÁSTICO, 15CMX6CM.</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -850,21 +860,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30.16.1139</t>
+          <t>30.16.1183</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLIPE DE METAL TAM. 2/0, CX C/ 100 UND.</t>
+          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>RESMA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -873,11 +883,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CLIPE DE METAL TAM. 2/0, CAIXA C/ 100 UND.</t>
+          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -893,12 +903,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30.16.1178</t>
+          <t>30.16.1189</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>APAGADOR PARA QUADRO BRANCO, BASE FELTRO, CORPO PLÁSTICO, 15CMX6CM.</t>
+          <t>PASTA SANFONADA, MATERIAL PLÁSTICO/PVC, COM 12 DIVISÕES, TAMANHO 235MM X 320MM X 30MM, COR FUMÊ, FECHAMENTO COM ELÁSTICO.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -907,7 +917,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -916,11 +926,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>APAGADOR PARA QUADRO BRANCO, BASE FELTRO, CORPO PLÁSTICO, 15CMX6CM.</t>
+          <t>PASTA SANFONADA, MATERIAL PLÁSTICO/PVC, COM 12 DIVISÕES, TAMANHO 235MM X 320MM X 30MM, COR transparente cristal, FECHAMENTO COM ELÁSTICO.</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -936,64 +946,54 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30.16.1183</t>
+          <t>30.16.129</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
+          <t>PINCEL ATÔMICO (CORES VARIADAS)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RESMA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>168</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30.16.1189</t>
+          <t>30.16.1296</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PASTA SANFONADA, MATERIAL PLÁSTICO/PVC, COM 12 DIVISÕES, TAMANHO 235MM X 320MM X 30MM, COR FUMÊ, FECHAMENTO COM ELÁSTICO.</t>
+          <t>Papel A3 90g</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>RESMA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1002,15 +1002,15 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PASTA SANFONADA, MATERIAL PLÁSTICO/PVC,  FECHAMENTO COM ELÁSTICO.</t>
+          <t>Papel A3 90g</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1022,12 +1022,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30.16.129</t>
+          <t>30.16.1364</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PINCEL ATÔMICO (CORES VARIADAS)</t>
+          <t>FITA ADESIVA CREPE 50X50 COR BRANCA.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1036,50 +1036,40 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PINCEL recarregável cor vermelha </t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30.16.1296</t>
+          <t>30.16.1389</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Papel A3 90g</t>
+          <t>GRAMPO GRAMPEADOR, MATERIAL METAL, TRATAMENTO SUPERFICIAL NIQUELADO, TAMANHO 23/8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RESMA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1088,15 +1078,15 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Papel A3 90g</t>
+          <t>GRAMPO GRAMPEADOR, MATERIAL METAL, TRATAMENTO SUPERFICIAL NIQUELADO, TAMANHO 23/8</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1108,12 +1098,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30.16.1364</t>
+          <t>30.16.1441</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FITA ADESIVA CREPE 50X50 COR BRANCA.</t>
+          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO, TIPO PONTA POLIÉSTER, COR TINTA PRETA, CARACTERÍSTICAS ADICIONAIS PONTA 2MM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1122,41 +1112,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>FITA ADESIVA CREPE 50X50 COR BRANCA.</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>85</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30.16.1389</t>
+          <t>30.16.1461</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GRAMPO GRAMPEADOR, MATERIAL METAL, TRATAMENTO SUPERFICIAL NIQUELADO, TAMANHO 23/8</t>
+          <t>PAPEL CREPOM, MATERIAL CELULOSE VEGETAL, 18 G/M2, COMPRIMENTO 2 M, LARGURA 48 CM, COR VARIADA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1165,7 +1145,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1174,11 +1154,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>GRAMPO GRAMPEADOR, MATERIAL METAL, TRATAMENTO SUPERFICIAL NIQUELADO, TAMANHO 23/8</t>
+          <t>PAPEL CREPOM, MATERIAL CELULOSE VEGETAL, 18 G/M2, COMPRIMENTO 2 M, LARGURA 48 CM, COR vermelho</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1194,12 +1174,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30.16.1441</t>
+          <t>30.16.1516</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO, TIPO PONTA POLIÉSTER, COR TINTA PRETA, CARACTERÍSTICAS ADICIONAIS PONTA 2MM</t>
+          <t>CADERNO, MATERIAL CELULOSE VEGETAL, MATERIAL CAPA PLÁSTICO, APRESENTAÇÃO ESPIRAL, 200 FLS, 280X205MM.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1208,7 +1188,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,11 +1197,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PINCEL MARCADOR PERMANENTE , MATERIAL PLÁSTICO, TIPO PONTA POLIÉSTER, COR TINTA PRETA, CARACTERÍSTICAS ADICIONAIS PONTA 2MM</t>
+          <t>CADERNO, MATERIAL CELULOSE VEGETAL, MATERIAL CAPA PLÁSTICO, APRESENTAÇÃO ESPIRAL, 200 FLS, 280X205MM.</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1237,21 +1217,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30.16.1461</t>
+          <t>30.16.1523</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PAPEL CREPOM, MATERIAL CELULOSE VEGETAL, 18 G/M2, COMPRIMENTO 2 M, LARGURA 48 CM, COR VARIADA</t>
+          <t>SACO DOCUMENTO, MATERIAL PLÁSTICO TRANSPARENTE, CAPACIDADE FOLHAS 40 FL, COMPRIMENTO 330 MM, LARGURA 240 MM, NÚMERO FUROS SEM FUROS. PACOTE COM 50 UN.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PACOTE</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1260,15 +1240,15 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PAPEL CREPOM, MATERIAL CELULOSE VEGETAL, 18 G/M2, COMPRIMENTO 2 M, LARGURA 48 CM, COR ROSA</t>
+          <t>SACO DOCUMENTO, MATERIAL PLÁSTICO TRANSPARENTE, CAPACIDADE FOLHAS 40 FL, COMPRIMENTO 330 MM, LARGURA 240 MM, NÚMERO FUROS SEM FUROS. PACOTE COM 50 UN.</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1280,21 +1260,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30.16.1513</t>
+          <t>30.16.169</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>COLA, COMPOSIÇÃO POLIVINIL ACETATO- PVA, COR INCOLOR, APLICAÇÃO ISOPOR, CARACTERÍSTICAS ADICIONAIS LAVÁVEL, NÃO TÓXICA, TIPO LÍQUIDO.</t>
+          <t>CLIPE DE METAL 2/0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BISNAGA</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1313,21 +1293,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30.16.1516</t>
+          <t>30.16.1694</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CADERNO, MATERIAL CELULOSE VEGETAL, MATERIAL CAPA PLÁSTICO, APRESENTAÇÃO ESPIRAL, 200 FLS, 280X205MM.</t>
+          <t>PAPEL A4, MATERIAL PAPEL ALCALINO, COMPRIMENTO 297MM, LARGURA 210MM, GRAMATURA 75 G/M2, COR BRANCA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>RESMA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1336,11 +1316,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CADERNO, MATERIAL CELULOSE VEGETAL, MATERIAL CAPA PLÁSTICO, APRESENTAÇÃO ESPIRAL, 200 FLS, 280X205MM.</t>
+          <t>PAPEL A4, MATERIAL PAPEL ALCALINO, COMPRIMENTO 297MM, LARGURA 210MM, GRAMATURA 75 G/M2, COR BRANCA</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1356,21 +1336,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30.16.1523</t>
+          <t>30.16.1716</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SACO DOCUMENTO, MATERIAL PLÁSTICO TRANSPARENTE, CAPACIDADE FOLHAS 40 FL, COMPRIMENTO 330 MM, LARGURA 240 MM, NÚMERO FUROS SEM FUROS. PACOTE COM 50 UN.</t>
+          <t>Bloco recado , material reciclado, cor natural, largura 38 MM, comprimento 50 MM, características adicionais auto-adesiva.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PACOTE</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1379,15 +1359,15 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SACO DOCUMENTO, MATERIAL PLÁSTICO TRANSPARENTE, CAPACIDADE FOLHAS 40 FL, COMPRIMENTO 330 MM, LARGURA 240 MM, NÚMERO FUROS SEM FUROS. PACOTE COM 50 UN.</t>
+          <t>Bloco recado , material reciclado, cor natural, largura 38 MM, comprimento 50 MM, características adicionais auto-adesiva.</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1399,54 +1379,64 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30.16.169</t>
+          <t>30.16.1759</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CLIPE DE METAL 2/0</t>
+          <t>MINA GRAFITE, 0,9MM, CAIXA C/12.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>CX</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MINA GRAFITE, 0,9MM, CAIXA C/12.</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>15</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30.16.1694</t>
+          <t>30.16.1941</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PAPEL A4, MATERIAL PAPEL ALCALINO, COMPRIMENTO 297MM, LARGURA 210MM, GRAMATURA 75 G/M2, COR BRANCA</t>
+          <t>ETIQUETA ADESIVA (110mm x 75m) - ribbon - material 100% resina; com resistência a solventes e abrasão comprovada após teste no local; cor preta; filme base em poliéster; velocidade de impressão: até 10 polegadas/segundo; rolo 90 metros.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RESMA</t>
+          <t>ROLO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1455,15 +1445,15 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PAPEL A4, MATERIAL PAPEL ALCALINO, COMPRIMENTO 297MM, LARGURA 210MM, GRAMATURA 75 G/M2, COR BRANCA</t>
+          <t>ETIQUETA ADESIVA (110mm x 75m) - ribbon - material 100% resina; com resistência a solventes e abrasão comprovada após teste no local; cor preta; filme base em poliéster; velocidade de impressão: até 10 polegadas/segundo; rolo 90 metros.</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1475,21 +1465,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30.16.1716</t>
+          <t>30.16.1942</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bloco recado , material reciclado, cor natural, largura 38 MM, comprimento 50 MM, características adicionais auto-adesiva.</t>
+          <t>ETIQUETA PARA IDENTIFICAÇÃO DE PATRIMÔNIO, TAMANHO 45mm DE LARGURA x 20mm DE ALTURA, CONFECCIONADA EM POLIÉSTER PRATA CROMO FOSCO, IMPRESSÃO CÓDIGO DE BARRA, 02 COLUNAS, ROLO COM 2000 ETIQUETAS. MARCA: ETIBRAS.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>ROLO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1498,11 +1488,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bloco recado , material reciclado, cor natural, largura 38 MM, comprimento 50 MM, características adicionais auto-adesiva.</t>
+          <t>ETIQUETA PARA IDENTIFICAÇÃO DE PATRIMÔNIO, TAMANHO 45mm DE LARGURA x 20mm DE ALTURA, CONFECCIONADA EM POLIÉSTER PRATA CROMO FOSCO, IMPRESSÃO CÓDIGO DE BARRA, 02 COLUNAS, ROLO COM 2000 ETIQUETAS. MARCA: ETIBRAS.</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1518,21 +1508,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30.16.1759</t>
+          <t>30.16.1954</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MINA GRAFITE, 0,9MM, CAIXA C/12.</t>
+          <t>BARBANTE ALGODÃO, QUANTIDADE FIOS 6 UNIDADES, ACABAMENTO SUPERFICIAL CRU.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CX</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1541,11 +1531,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MINA GRAFITE, 0,9MM, CAIXA C/12.</t>
+          <t>BARBANTE ALGODÃO, QUANTIDADE FIOS 6 UNIDADES, ACABAMENTO SUPERFICIAL CRU.</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1561,21 +1551,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30.16.1941</t>
+          <t>30.16.1959</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ETIQUETA ADESIVA (110mm x 75m) - ribbon - material 100% resina; com resistência a solventes e abrasão comprovada após teste no local; cor preta; filme base em poliéster; velocidade de impressão: até 10 polegadas/segundo; rolo 90 metros.</t>
+          <t>CALCULADORA ELETRÔNICA DE BOLSO 8 DÍGITOS. POSSUI VISOR DE LCD, CALCULA RAIZ QUADRADA, PORCENTAGEM, ALÉM DAS QUATRO OPERAÇÕES BÁSICAS. POSSUI MEMÓRIA DE DESLIGAMENTO AUTOMÁTICO, COM FUNCIONAMENTO A PILHA AA OU AAA 1,5V ENERGIA SOLAR MARCA: KENKO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ROLO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1584,11 +1574,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ETIQUETA ADESIVA (110mm x 75m) - ribbon - material 100% resina; com resistência a solventes e abrasão comprovada após teste no local; cor preta; filme base em poliéster; velocidade de impressão: até 10 polegadas/segundo; rolo 90 metros.</t>
+          <t>CALCULADORA ELETRÔNICA DE BOLSO 8 DÍGITOS. POSSUI VISOR DE LCD, CALCULA RAIZ QUADRADA, PORCENTAGEM, ALÉM DAS QUATRO OPERAÇÕES BÁSICAS. POSSUI MEMÓRIA DE DESLIGAMENTO AUTOMÁTICO, COM FUNCIONAMENTO A PILHA AA OU AAA 1,5V ENERGIA SOLAR</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1604,21 +1594,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30.16.1942</t>
+          <t>30.16.1976</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ETIQUETA PARA IDENTIFICAÇÃO DE PATRIMÔNIO, TAMANHO 45mm DE LARGURA x 20mm DE ALTURA, CONFECCIONADA EM POLIÉSTER PRATA CROMO FOSCO, IMPRESSÃO CÓDIGO DE BARRA, 02 COLUNAS, ROLO COM 2000 ETIQUETAS. MARCA: ETIBRAS.</t>
+          <t>Clipe de metal. Tamanho: 6/0; caixa com 100 unidades.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ROLO</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1627,11 +1617,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ETIQUETA PARA IDENTIFICAÇÃO DE PATRIMÔNIO, TAMANHO 45mm DE LARGURA x 20mm DE ALTURA, CONFECCIONADA EM POLIÉSTER PRATA CROMO FOSCO, IMPRESSÃO CÓDIGO DE BARRA, 02 COLUNAS, ROLO COM 2000 ETIQUETAS. MARCA: ETIBRAS.</t>
+          <t>Clipe de metal. Tamanho: 6/0; caixa com 100 unidades.</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1647,12 +1637,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30.16.1954</t>
+          <t>30.16.1985</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BARBANTE ALGODÃO, QUANTIDADE FIOS 6 UNIDADES, ACABAMENTO SUPERFICIAL CRU.</t>
+          <t>Fita adesiva, material crepe, tipo monoface, largura 50 mm cumprimento 50 m, cor branca, aplicação multi uso, Marca : altape.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1661,40 +1651,50 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Fita adesiva, material crepe, tipo monoface, largura 50 mm cumprimento 50 m, cor branca, aplicação multi uso</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>84</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30.16.1959</t>
+          <t>30.16.1991</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CALCULADORA ELETRÔNICA DE BOLSO 8 DÍGITOS. POSSUI VISOR DE LCD, CALCULA RAIZ QUADRADA, PORCENTAGEM, ALÉM DAS QUATRO OPERAÇÕES BÁSICAS. POSSUI MEMÓRIA DE DESLIGAMENTO AUTOMÁTICO, COM FUNCIONAMENTO A PILHA AA OU AAA 1,5V ENERGIA SOLAR MARCA: KENKO</t>
+          <t>Mina grafite. Material: grafita; Diâmetro: 0,70 mm; Comprimento: 60 mm; Dureza. B. Marca: CIS.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1703,11 +1703,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CALCULADORA ELETRÔNICA DE BOLSO 8 DÍGITOS. POSSUI VISOR DE LCD, CALCULA RAIZ QUADRADA, PORCENTAGEM, ALÉM DAS QUATRO OPERAÇÕES BÁSICAS. POSSUI MEMÓRIA DE DESLIGAMENTO AUTOMÁTICO, COM FUNCIONAMENTO A PILHA AA OU AAA 1,5V ENERGIA SOLAR MARCA: KENKO</t>
+          <t>Mina grafite. Material: grafita; Diâmetro: 0,70 mm; Comprimento: 60 mm; Dureza. B</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1723,21 +1723,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30.16.1976</t>
+          <t>30.16.1997</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Clipe de metal. Tamanho: 6/0; caixa com 100 unidades.</t>
+          <t>Fita sinalização, material plástico, largura 70 mm, cor preta e amarela, aplicação sinalização de advertência, características adicionais formato cores em diagonal, zebrada.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1746,11 +1746,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Clipe de metal. Tamanho: 6/0; caixa com 100 unidades.</t>
+          <t>Fita sinalização, material plástico, largura 70 mm, cor preta e amarela, aplicação sinalização de advertência, características adicionais formato cores em diagonal, zebrada.</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1766,12 +1766,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30.16.1985</t>
+          <t>30.16.2007</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fita adesiva, material crepe, tipo monoface, largura 50 mm cumprimento 50 m, cor branca, aplicação multi uso, Marca : altape.</t>
+          <t>Marcador de página, cor diversas, características adicionais, adesivos reposicionáveis, setas, neon, marca kas.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1780,40 +1780,50 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Marcador de página, cor diversas, características adicionais, adesivos reposicionáveis, setas, neon</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>22</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30.16.1991</t>
+          <t>30.16.2019</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mina grafite. Material: grafita; Diâmetro: 0,70 mm; Comprimento: 60 mm; Dureza. B. Marca: CIS.</t>
+          <t>Pistola aplicadora de cola quente. Bivoltagem: 110/220 V; 40 Watts; ponta com isolante térmico; para refil de 11 a 12 mm de diâmetro. Marca: Jocar.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1822,15 +1832,15 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mina grafite. Material: grafita; Diâmetro: 0,70 mm; Comprimento: 60 mm; Dureza. B. Marca: CIS.</t>
+          <t>Pistola aplicadora de cola quente. Bivoltagem: 110/220 V; 40 Watts; ponta com isolante térmico; para refil de 11 a 12 mm de diâmetro.</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>edmar.filho@reitoria.ifpe.edu.br</t>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1842,12 +1852,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30.16.1997</t>
+          <t>30.16.2021</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fita sinalização, material plástico, largura 70 mm, cor preta e amarela, aplicação sinalização de advertência, características adicionais formato cores em diagonal, zebrada.</t>
+          <t>Cola. Composição: silicone; incolor; tipo bastão. Marca: Jocar.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1856,40 +1866,50 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Cola. Composição: silicone; incolor; tipo bastão.</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>57</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30.16.2007</t>
+          <t>30.16.2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Marcador de página, cor diversas, características adicionais, adesivos reposicionáveis, setas, neon, marca kas.</t>
+          <t>Copo descartável, capacidade 50 mL, pacote com 100 UND.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PCT</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1898,11 +1918,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Marcador de página, cor diversas, características adicionais, adesivos reposicionáveis</t>
+          <t>Copo descartável, capacidade 50 mL, pacote com 100 UND.</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1918,12 +1938,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30.16.2019</t>
+          <t>30.16.2061</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pistola aplicadora de cola quente. Bivoltagem: 110/220 V; 40 Watts; ponta com isolante térmico; para refil de 11 a 12 mm de diâmetro. Marca: Jocar.</t>
+          <t>Calculadora eletrônica de mesa, com 12 dígitos, alimentação com bateria HR1130 ou célula solar. Marca: Kenko.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1932,7 +1952,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1941,15 +1961,15 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pistola aplicadora de cola quente. Bivoltagem: 110/220 V; 40 Watts; ponta com isolante térmico; para refil de 11 a 12 mm de diâmetro. </t>
+          <t>Calculadora eletrônica de mesa, com 12 dígitos, alimentação com bateria HR1130 ou célula solar.</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1961,12 +1981,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30.16.2021</t>
+          <t>30.16.2125</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cola. Composição: silicone; incolor; tipo bastão. Marca: Jocar.</t>
+          <t>EXTRATOR DE GRAMPO, MATERIAL: AÇO, TIPO: ESPATULA. MARCA: FERSAN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1975,7 +1995,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1984,15 +2004,15 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Cola. Composição: silicone; incolor; tipo bastão ( UNIDADE )</t>
+          <t>EXTRATOR DE GRAMPO, MATERIAL: AÇO, TIPO: ESPATULA. MARCA: FERSAN</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2004,55 +2024,45 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30.16.2025</t>
+          <t>30.16.2221</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Copo descartável, capacidade 50 mL, pacote com 100 UND.</t>
+          <t>FITA ADESIVA, CREPE, MONOFACE, 50MMX50M, MULTIUSO, BRANCA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PCT</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Copo descartável, capacidade 50 mL, pacote com 100 UND.</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>171</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30.16.2061</t>
+          <t>30.16.2246</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Calculadora eletrônica de mesa, com 12 dígitos, alimentação com bateria HR1130 ou célula solar. Marca: Kenko.</t>
+          <t>FITA ADESIVA CREPE, MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, COR BRANCA.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2061,41 +2071,31 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Calculadora eletrônica de mesa, com 12 dígitos, alimentação com bateria HR1130 ou célula solar. Marca: Kenko.</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>13</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30.16.2125</t>
+          <t>30.16.2247</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EXTRATOR DE GRAMPO, MATERIAL: AÇO, TIPO: ESPATULA. MARCA: FERSAN</t>
+          <t>FITA ADESIVA, CREPE MONOFACE, 25 MM X 50M, COR BRANCA.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2104,31 +2104,41 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>FITA ADESIVA, CREPE MONOFACE, 25 MM X 50M, COR BRANCA.</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>65</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30.16.2221</t>
+          <t>30.16.2248</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, CREPE, MONOFACE, 50MMX50M, MULTIUSO, BRANCA</t>
+          <t>FITA ADESIVA, MATERIAL PROPILENO OU POLIETILENO TRANSPARENTE, MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, INCOLOR.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2137,31 +2147,41 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>FITA ADESIVA, MATERIAL PROPILENO OU POLIETILENO TRANSPARENTE, MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, INCOLOR.</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>27</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30.16.2246</t>
+          <t>30.16.2249</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FITA ADESIVA CREPE, MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, COR BRANCA.</t>
+          <t>FITA ADESIVA, MATERIAL POLIETILENO OU POLIPROPILENO, MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, MARROM.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2170,31 +2190,41 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Fita adesiva KRAFT 770 Papel crepe corrugado para Empacotamento , 48mmX50mts, cor Marrom</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>13</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30.16.2247</t>
+          <t>30.16.2250</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, CREPE MONOFACE, 25 MM X 50M, COR BRANCA.</t>
+          <t>FITA ADESIVA, MATERIAL PROPILENO OU POLIPROPILENO, TRANSPARENTE, MONOFACE, LARGURA 25MM, COMPRIMENTO 50M, INCOLOR.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2203,7 +2233,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2212,11 +2242,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, CREPE MONOFACE, 25 MM X 50M, COR BRANCA.</t>
+          <t>FITA ADESIVA, MATERIAL PROPILENO OU POLIPROPILENO, TRANSPARENTE, MONOFACE, LARGURA 25MM, COMPRIMENTO 50M, INCOLOR.</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2232,12 +2262,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30.16.2248</t>
+          <t>30.16.2252</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL PROPILENO OU POLIETILENO TRANSPARENTE, MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, INCOLOR.</t>
+          <t>FITA SINALIZAÇÃO, MATERIAL PLÁSTICO, COMPRIMENTO 180M OU SUPERIOR, LARGURA 70MM, COR PRETA E AMARELA, APLICAÇÃO SINALIZAÇÃO DE ADVERTÊNCIA, CARACTERÍSTICAS ADICIONAIS FORMATO CORES EM DIAGONAL, ZEBRADA.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2246,41 +2276,31 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>FITA ADESIVA, MATERIAL PROPILENO OU POLIETILENO TRANSPARENTE, MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, INCOLOR.</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>42</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30.16.2249</t>
+          <t>30.16.2254</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL POLIETILENO OU POLIPROPILENO, MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, MARROM.</t>
+          <t>FITA ADESIVA COLORIDA 12MMX10M AZUL.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2289,7 +2309,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2298,11 +2318,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>( Fita para Empacotamento Papel Kraft 780, 48mmX50mts)</t>
+          <t>FITA ADESIVA COLORIDA 12MMX10M AZUL.</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2318,12 +2338,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>30.16.2250</t>
+          <t>30.16.2255</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL PROPILENO OU POLIPROPILENO, TRANSPARENTE, MONOFACE, LARGURA 25MM, COMPRIMENTO 50M, INCOLOR.</t>
+          <t>FITA ADESIVA COLORIDA 12MMX10M VERMELHO.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2332,31 +2352,41 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>FITA ADESIVA COLORIDA 12MMX10M VERMELHO.</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>30.16.2252</t>
+          <t>30.16.2256</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FITA SINALIZAÇÃO, MATERIAL PLÁSTICO, COMPRIMENTO 180M OU SUPERIOR, LARGURA 70MM, COR PRETA E AMARELA, APLICAÇÃO SINALIZAÇÃO DE ADVERTÊNCIA, CARACTERÍSTICAS ADICIONAIS FORMATO CORES EM DIAGONAL, ZEBRADA.</t>
+          <t>FITA ADESIVA COLORIDA 12MMX10M AMARELO.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2365,7 +2395,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2374,11 +2404,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>FITA SINALIZAÇÃO, MATERIAL PLÁSTICO, COMPRIMENTO 180M OU SUPERIOR, LARGURA 70MM, COR PRETA E AMARELA, APLICAÇÃO SINALIZAÇÃO DE ADVERTÊNCIA, CARACTERÍSTICAS ADICIONAIS FORMATO CORES EM DIAGONAL, ZEBRADA.</t>
+          <t>FITA ADESIVA COLORIDA 12MMX10M AMARELO.</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2394,12 +2424,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>30.16.2254</t>
+          <t>30.16.2257</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FITA ADESIVA COLORIDA 12MMX10M AZUL.</t>
+          <t>FITA ADESIVA COLORIDA 12MMX10M VERDE.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2408,7 +2438,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2417,11 +2447,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>FITA ADESIVA COLORIDA 12MMX10M AZUL.</t>
+          <t>FITA ADESIVA COLORIDA 12MMX10M VERDE.</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2437,12 +2467,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>30.16.2255</t>
+          <t>30.16.2259</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FITA ADESIVA COLORIDA 12MMX10M VERMELHO.</t>
+          <t>GRAMPEADOR TIPO MESA, METAL, CAPACIDADE 20 FOLHAS, PARA GRAMPOS 26/6.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2451,7 +2481,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2460,11 +2490,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FITA ADESIVA COLORIDA 12MMX10M VERMELHO.</t>
+          <t>GRAMPEADOR TIPO MESA, METAL, CAPACIDADE 20 FOLHAS, PARA GRAMPOS 26/6.</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2480,12 +2510,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>30.16.2256</t>
+          <t>30.16.2260</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FITA ADESIVA COLORIDA 12MMX10M AMARELO.</t>
+          <t>PINCEL QUADRO BRANCO/MAGNÉTICO RECARREGÁVEL, MATERIAL PLÁSTICO, TIPO PONTA FELTRO, COR TINTA AZUL.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2494,7 +2524,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2503,11 +2533,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FITA ADESIVA COLORIDA 12MMX10M AMARELO.</t>
+          <t>PINCEL QUADRO BRANCO/MAGNÉTICO RECARREGÁVEL, MATERIAL PLÁSTICO, TIPO PONTA FELTRO, COR TINTA preto.</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2523,12 +2553,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>30.16.2257</t>
+          <t>30.16.2261</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FITA ADESIVA COLORIDA 12MMX10M VERDE.</t>
+          <t>REFIL DE TINTA PARA PINCEL QUADRO BRANCO/MAGNÉTICO RECARREGÁVEL, DIVERSAS CORES, CAPACIDADE 5,50 ML, COMPATÍVEL COM O PINCEL V BOARD MASTER.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2537,7 +2567,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2546,11 +2576,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>FITA ADESIVA COLORIDA 12MMX10M VERDE.</t>
+          <t>REFIL DE TINTA PARA PINCEL QUADRO BRANCO/MAGNÉTICO RECARREGÁVEL, ,COMPATÍVEL COM O PINCEL V BOARD MASTER. cor azul</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2566,55 +2596,45 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>30.16.2259</t>
+          <t>30.16.2279</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GRAMPEADOR TIPO MESA, METAL, CAPACIDADE 20 FOLHAS, PARA GRAMPOS 26/6.</t>
+          <t>MARCADOR PÁGINA, CORES DIVERSAS, CARACTERÍSTICAS ADICIONAIS ADESIVOS REPOSICIONÁVEIS, SETAS, NEON, POST-IT, FLAGS. PACOTE COM APROXIMADAMENTE 100 FOLHAS.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>EMBALAGEM</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>GRAMPEADOR TIPO MESA, METAL, CAPACIDADE 20 FOLHAS, PARA GRAMPOS 26/6.</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>4</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>30.16.2260</t>
+          <t>30.16.2282</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PINCEL QUADRO BRANCO/MAGNÉTICO RECARREGÁVEL, MATERIAL PLÁSTICO, TIPO PONTA FELTRO, COR TINTA AZUL.</t>
+          <t>ENVELOPE, PAPEL KRAFT, GRAMATURA 90, TIPO SACO COMUM, COMPRIMENTO 324MM, LARGURA 229MM, COR PARDA.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2623,7 +2643,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2632,15 +2652,15 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>PINCEL QUADRO BRANCO/MAGNÉTICO RECARREGÁVEL, MATERIAL PLÁSTICO, TIPO PONTA FELTRO, COR TINTA AZUL.</t>
+          <t>ENVELOPE, PAPEL KRAFT, GRAMATURA 90, TIPO SACO COMUM, COMPRIMENTO 324MM, LARGURA 229MM, COR PARDA.</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2652,12 +2672,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>30.16.2261</t>
+          <t>30.16.2288</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>REFIL DE TINTA PARA PINCEL QUADRO BRANCO/MAGNÉTICO RECARREGÁVEL, DIVERSAS CORES, CAPACIDADE 5,50 ML, COMPATÍVEL COM O PINCEL V BOARD MASTER.</t>
+          <t>CANETA MARCADOR COM TINTA PERMANENTE NAS COR AZUL, RESISTENTE A ÁGUA. IDEAL PARA CD, DVD, PLÁSTICOS, VINIL, ACRÍLICOS, VIDROS E FILMES. PONTA DE POLIÉSTER 2.0 MM.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2666,41 +2686,31 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>REFIL DE TINTA PARA PINCEL QUADRO BRANCO/MAGNÉTICO RECARREGÁVEL, COR AZUL, CAPACIDADE 5,50 ML, COMPATÍVEL COM O PINCEL V BOARD MASTER.</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>144</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>edmar.filho@reitoria.ifpe.edu.br</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>30.16.2268</t>
+          <t>30.16.2289</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TINTA GUACHE, COMPOSIÇÃO RESINA VINÍCULA/ÁGUA/PIGMENTO/CARGAS E CONSERVANTE, COR VERMELHO, APLICAÇÃO PINTURA A PINCEL EM PAPEL/CARTÃO E CARTOLINA. 250 ML.</t>
+          <t>CANETA MARCADOR COM TINTA PERMANENTE NAS COR VERMELHO, RESISTENTE A ÁGUA. IDEAL PARA CD, DVD, PLÁSTICOS, VINIL, ACRÍLICOS, VIDROS E FILMES. PONTA DE POLIÉSTER 2.0 MM.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2709,7 +2719,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2728,12 +2738,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>30.16.2270</t>
+          <t>30.16.2290</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CANETA CORRETIVA, MATERIAL PLÁSTICO, TIPO PONTA PLÁSTICO, CARGA 8 ML, APLICAÇÃO ESCRITA. PADRÃO: FABER CASTELL, BIC OU SIMILAR COM MESMO PADRÃO DE QUALIDADE.</t>
+          <t>CANETA MARCADOR COM TINTA PERMANENTE NAS COR PRETO, RESISTENTE A ÁGUA. IDEAL PARA CD, DVD, PLÁSTICOS, VINIL, ACRÍLICOS, VIDROS E FILMES. PONTA DE POLIÉSTER 2.0 MM.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2742,7 +2752,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2761,21 +2771,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>30.16.2279</t>
+          <t>30.16.2291</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MARCADOR PÁGINA, CORES DIVERSAS, CARACTERÍSTICAS ADICIONAIS ADESIVOS REPOSICIONÁVEIS, SETAS, NEON, POST-IT, FLAGS. PACOTE COM APROXIMADAMENTE 100 FOLHAS.</t>
+          <t>CANETA MARCA-TEXTO, MATERIAL PLÁSTICO, TIPO PONTA FLUORESCENTE, COR AZUL.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EMBALAGEM</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2794,21 +2804,21 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>30.16.2282</t>
+          <t>30.16.2352</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ENVELOPE, PAPEL KRAFT, GRAMATURA 90, TIPO SACO COMUM, COMPRIMENTO 324MM, LARGURA 229MM, COR PARDA.</t>
+          <t>GRAMPO GRAMPEADOR, MATERIAL METAL, TAMANHO 23/20.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2817,11 +2827,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ENVELOPE, PAPEL KRAFT, GRAMATURA 90, TIPO SACO COMUM, COMPRIMENTO 324MM, LARGURA 229MM, COR PARDA.</t>
+          <t>GRAMPO GRAMPEADOR, MATERIAL METAL, TAMANHO 23/20.</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2837,45 +2847,55 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>30.16.2288</t>
+          <t>30.16.2353</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CANETA MARCADOR COM TINTA PERMANENTE NAS COR AZUL, RESISTENTE A ÁGUA. IDEAL PARA CD, DVD, PLÁSTICOS, VINIL, ACRÍLICOS, VIDROS E FILMES. PONTA DE POLIÉSTER 2.0 MM.</t>
+          <t>GRAMPO GRAMPEADOR, MATERIAL METAL, TAMANHO 23/13.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>GRAMPO GRAMPEADOR, MATERIAL METAL, TAMANHO 23/13.</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>23</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>30.16.2289</t>
+          <t>30.16.2357</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CANETA MARCADOR COM TINTA PERMANENTE NAS COR VERMELHO, RESISTENTE A ÁGUA. IDEAL PARA CD, DVD, PLÁSTICOS, VINIL, ACRÍLICOS, VIDROS E FILMES. PONTA DE POLIÉSTER 2.0 MM.</t>
+          <t>CAIXA ARQUIVO, MATERIAL PLÁSTICO, 135 X 250 X 360MM, CORES VARIADAS.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2884,40 +2904,50 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>CAIXA ARQUIVO, MATERIAL PLÁSTICO, 135 X 250 X 360MM.</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>9</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>30.16.2290</t>
+          <t>30.16.2360</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CANETA MARCADOR COM TINTA PERMANENTE NAS COR PRETO, RESISTENTE A ÁGUA. IDEAL PARA CD, DVD, PLÁSTICOS, VINIL, ACRÍLICOS, VIDROS E FILMES. PONTA DE POLIÉSTER 2.0 MM.</t>
+          <t>FITA ADESIVA, MATERIAL POLIPROPILENO TRANSPARENTE, TIPO MONOFACE, LARGURA 25mm, COMPRIMENTO 50m, INCOLOR. MARCA: ADELBRAS.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>ROLO</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2936,64 +2966,54 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>30.16.2291</t>
+          <t>30.16.2361</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL PLÁSTICO, TIPO PONTA FLUORESCENTE, COR AZUL.</t>
+          <t>FITA ADESIVA, MATERIAL POLIPROPILENO, MONOFACE, LARGURA 12mm, COMPRIMENTO 10m. MARCA: ADELBRAS.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>ROLO</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL PLÁSTICO, TIPO PONTA FLUORESCENTE, COR AZUL.</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>3</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>30.16.2352</t>
+          <t>30.16.2362</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GRAMPO GRAMPEADOR, MATERIAL METAL, TAMANHO 23/20.</t>
+          <t>FITA ADESIVA, MATERIAL CELOFANE TRANSPARENTE, MONOFACE, LARGURA 12mm, COMPRIMENTO 50m, INCOLOR. MARCA: ADELBRAS.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3002,11 +3022,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>GRAMPO GRAMPEADOR, MATERIAL METAL, TAMANHO 23/20.</t>
+          <t>FITA ADESIVA, MATERIAL CELOFANE TRANSPARENTE, MONOFACE, LARGURA 12mm, COMPRIMENTO 50m, INCOLOR. MARCA: ADELBRAS.</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3022,21 +3042,21 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>30.16.2353</t>
+          <t>30.16.2378</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GRAMPO GRAMPEADOR, MATERIAL METAL, TAMANHO 23/13.</t>
+          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO PLASTIFICADO, TIPO AZ, LOMBADA LARGA, APLICAÇÃO ARQUIVO.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3045,11 +3065,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>GRAMPO GRAMPEADOR, MATERIAL METAL, TAMANHO 23/13.</t>
+          <t>PASTA ARQUIVO Registrador Ofício, MATERIAL CARTÃO PRENSADO PLASTIFICADO, TIPO AZ, LOMBADA 80 mm.</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3065,12 +3085,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>30.16.2357</t>
+          <t>30.16.2383</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CAIXA ARQUIVO, MATERIAL PLÁSTICO, 135 X 250 X 360MM, CORES VARIADAS.</t>
+          <t>PAPEL EMBORRACHADO, MATERIAL BORRACHA EVA, COMPRIMENTO 60 cm, LARGURA 40 cm, ESPESSURA 2mm, PADRÃO LISO, CORES VARIADAS.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3079,7 +3099,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3088,11 +3108,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAIXA ARQUIVO, MATERIAL PLÁSTICO, 135 X 250 X 360MM, COR amarelo </t>
+          <t>PAPEL EMBORRACHADO, MATERIAL BORRACHA EVA, COMPRIMENTO 60 cm, LARGURA 40 cm, ESPESSURA 2mm, PADRÃO LISO, COR verde.</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3108,64 +3128,54 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>30.16.2360</t>
+          <t>30.16.2384</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL POLIPROPILENO TRANSPARENTE, TIPO MONOFACE, LARGURA 25mm, COMPRIMENTO 50m, INCOLOR. MARCA: ADELBRAS.</t>
+          <t>PAPEL CELOFANE, COMPRIMENTO 100 cm, LARGURA 85 cm, CORES VARIADAS, APLICAÇÃO TRABALHADO EDUCATIVOS, GRAMATURA 18 G/M2.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ROLO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>FITA ADESIVA, MATERIAL POLIPROPILENO TRANSPARENTE, TIPO MONOFACE, LARGURA 25mm, COMPRIMENTO 50m, INCOLOR. MARCA: ADELBRAS.</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>67</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>30.16.2361</t>
+          <t>30.16.2426</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL POLIPROPILENO, MONOFACE, LARGURA 12mm, COMPRIMENTO 10m. MARCA: ADELBRAS.</t>
+          <t>ENVELOPE MATERIAL PAPEL KRAFT, GRAMATURA 90G/M², COMPRIMENTO 410 mm, LARGURA 310 mm.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ROLO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3184,55 +3194,45 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>30.16.2362</t>
+          <t>30.16.2431</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL CELOFANE TRANSPARENTE, MONOFACE, LARGURA 12mm, COMPRIMENTO 50m, INCOLOR. MARCA: ADELBRAS.</t>
+          <t>COLA, COMPOSIÇÃO SILICONE, APLICAÇÃO PISTOLA QUENTE, CARACTERÍSTICA ADICIONAIS: 11 MM DE DIÂMETRO E 30 CM DE COMPRIMENTO, TIPO BASTÃO. MARCA: LEONORA JOCAR.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>FITA ADESIVA, MATERIAL CELOFANE TRANSPARENTE, MONOFACE, LARGURA 12mm, COMPRIMENTO 50m, INCOLOR. MARCA: ADELBRAS.</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>51</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>30.16.2378</t>
+          <t>30.16.2432</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO PLASTIFICADO, TIPO AZ, LOMBADA LARGA, APLICAÇÃO ARQUIVO.</t>
+          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO RECICLADO, TIPO PONTA FELTRO, COR TINTA VARIADA. MARCA: BRW.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3250,11 +3250,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO PLASTIFICADO, TIPO AZ, LOMBADA LARGA, APLICAÇÃO ARQUIVO.</t>
+          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO RECICLADO, TIPO PONTA FELTRO, COR TINTA vermelha.</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -3270,12 +3270,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>30.16.2383</t>
+          <t>30.16.2477</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PAPEL EMBORRACHADO, MATERIAL BORRACHA EVA, COMPRIMENTO 60 cm, LARGURA 40 cm, ESPESSURA 2mm, PADRÃO LISO, CORES VARIADAS.</t>
+          <t>PERFURADOR DE PAPEL, MATERIAL METAL, TIPO GRANDE, TRATAMENTO SUPERFICIAL NIQUELADO, CAPACIDADE PERFURAÇÃO 20 FL, FUNCIONAMENTO MANUAL.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3293,15 +3293,15 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>PAPEL EMBORRACHADO, MATERIAL BORRACHA EVA, COMPRIMENTO 60 cm, LARGURA 40 cm, ESPESSURA 2mm, PADRÃO LISO, CORES AZUL</t>
+          <t>PERFURADOR DE PAPEL, MATERIAL METAL, TIPO GRANDE, TRATAMENTO SUPERFICIAL NIQUELADO, CAPACIDADE PERFURAÇÃO 20 FL, FUNCIONAMENTO MANUAL.</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3313,12 +3313,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>30.16.2384</t>
+          <t>30.16.2484</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PAPEL CELOFANE, COMPRIMENTO 100 cm, LARGURA 85 cm, CORES VARIADAS, APLICAÇÃO TRABALHADO EDUCATIVOS, GRAMATURA 18 G/M2.</t>
+          <t>TNT, GRAMATURA 100 G/M2, COR BRANCA, LARGURA 1,40 M.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3336,11 +3336,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>PAPEL CELOFANE, COMPRIMENTO 100 cm, LARGURA 85 cm, COR laranja, APLICAÇÃO TRABALHADO EDUCATIVOS, GRAMATURA 18 G/M2.</t>
+          <t>TNT, GRAMATURA 100 G/M2, COR BRANCA, LARGURA 1,40 M. pacote com 10 metros</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -3356,21 +3356,21 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>30.16.2426</t>
+          <t>30.16.2531</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ENVELOPE MATERIAL PAPEL KRAFT, GRAMATURA 90G/M², COMPRIMENTO 410 mm, LARGURA 310 mm.</t>
+          <t>GRAMPO GRAMPEADOR, MATERIAL AÇO, TRATAMENTO SUPERFICIAL NIQUELADO, TAMANHO 26/6.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3379,11 +3379,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ENVELOPE MATERIAL PAPEL KRAFT, GRAMATURA 90G/M², COMPRIMENTO 410 mm, LARGURA 310 mm.</t>
+          <t>GRAMPO GRAMPEADOR, MATERIAL AÇO, TRATAMENTO SUPERFICIAL NIQUELADO, TAMANHO 26/6.</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3399,12 +3399,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>30.16.2427</t>
+          <t>30.16.2532</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CANETA CORRETIVA, MATERIAL PLÁSTICO, TIPO PONTA METAL, CARGA 8 ML. MARCA: LEONORA JOCAR.</t>
+          <t>GRAMPEADOR, MATERIAL METAL, TIPO MESA, CAPACIDADE 100 FL, TAMANHO GRAMPO 23/6 A 23/23.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3413,31 +3413,41 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>GRAMPEADOR, MATERIAL METAL, TIPO MESA, CAPACIDADE 100 FL, TAMANHO GRAMPO 23/6 A 23/23.</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>10</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>30.16.2430</t>
+          <t>30.16.2533</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>COLA, COMPOSIÇÃO POLIVINIL ACETATO - PVA, COR BRANCA, APLICAÇÃO PAPEL, TIPO PASTOSA. MARCA: GLINORTE.</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, COR PRETA, MATERIAL TRANSPARENTE. MARCA: BIC.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3446,64 +3456,84 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>313</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, COR PRETA, MATERIAL TRANSPARENTE</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>313</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>30.16.2431</t>
+          <t>30.16.2534</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>COLA, COMPOSIÇÃO SILICONE, APLICAÇÃO PISTOLA QUENTE, CARACTERÍSTICA ADICIONAIS: 11 MM DE DIÂMETRO E 30 CM DE COMPRIMENTO, TIPO BASTÃO. MARCA: LEONORA JOCAR.</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, COR AZUL, MATERIAL TRANSPARENTE. MARCA: BIC.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>526</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, COR AZUL, MATERIAL TRANSPARENTE. MARCA: BIC.</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>378</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>30.16.2432</t>
+          <t>30.16.2535</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO RECICLADO, TIPO PONTA FELTRO, COR TINTA VARIADA. MARCA: BRW.</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, COR VERMELHA, MATERIAL TRANSPARENTE. MARCA: BIC.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3512,7 +3542,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3521,11 +3551,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO RECICLADO, TIPO PONTA FELTRO, COR TINTA Vermelha.</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, COR VERMELHA, MATERIAL TRANSPARENTE. MARCA: BIC.</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3541,12 +3571,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>30.16.2477</t>
+          <t>30.16.2540</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PERFURADOR DE PAPEL, MATERIAL METAL, TIPO GRANDE, TRATAMENTO SUPERFICIAL NIQUELADO, CAPACIDADE PERFURAÇÃO 20 FL, FUNCIONAMENTO MANUAL.</t>
+          <t>PORTA-FITA ADESIVA, MATERIAL PLÁSTICO, COR PRETA, COMPRIMENTO 21 CM, LARGURA 9 CM, CARACTERÍSTICAS ADICIONAIS COM CORTADOR FITA DE METAL E BASE ANTIDERRAPANTE.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3555,7 +3585,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3564,11 +3594,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>PERFURADOR DE PAPEL, MATERIAL METAL, TIPO GRANDE, TRATAMENTO SUPERFICIAL NIQUELADO, CAPACIDADE PERFURAÇÃO 20 FL, FUNCIONAMENTO MANUAL.</t>
+          <t>PORTA-FITA ADESIVA, MATERIAL PLÁSTICO, COR PRETA, COMPRIMENTO 21 CM, LARGURA 9 CM, CARACTERÍSTICAS ADICIONAIS COM CORTADOR FITA DE METAL E BASE ANTIDERRAPANTE.</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3584,12 +3614,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>30.16.2484</t>
+          <t>30.16.2541</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TNT, GRAMATURA 100 G/M2, COR BRANCA, LARGURA 1,40 M.</t>
+          <t>FITA ADESIVA, MATERIAL CELOFANE TRANSPARENTE, TIPO MONOFACE, LARGURA 12 MM, COMPRIMENTO 50M, INCOLOR.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3598,7 +3628,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3617,12 +3647,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>30.16.2530</t>
+          <t>30.16.2563</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REFIL TINTA, COR PRETA, CAPACIDADE 20 ML, APLICAÇÃO PINCEL QUADRO BRANCO.</t>
+          <t>PASTA ARQUIVO, MATERIAL PVC, TIPO SANFONADA, LARGURA 280 MM, ALTURA 390 MM, COR INCOLOR, CARACTERÍSTICAS ADICIONAIS ELÁSTICO, 31 DIVISÓRIAS, VISOR E ETIQUETA.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3631,40 +3661,50 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Pasta Catálogo COM 50 envelopes Finos 240 x 330 mm cor Preto</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>53</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>30.16.2531</t>
+          <t>30.16.2566</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GRAMPO GRAMPEADOR, MATERIAL AÇO, TRATAMENTO SUPERFICIAL NIQUELADO, TAMANHO 26/6.</t>
+          <t>PASTA ARQUIVO, MATERIAL CARTÃO PLASTIFICADO, LOMBADA 20 MM, COR AZUL, CARACTERÍSTICAS ADICIONAIS COM ABA E ELÁSTICO, TAMANHO OFÍCIO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3673,11 +3713,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>GRAMPO GRAMPEADOR, MATERIAL AÇO, TRATAMENTO SUPERFICIAL NIQUELADO, TAMANHO 26/6.</t>
+          <t>Pasta com elástico, Polipropileno, Ofício - 245 x 20 x 335 transparente cristal</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3693,12 +3733,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>30.16.2532</t>
+          <t>30.16.2567</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GRAMPEADOR, MATERIAL METAL, TIPO MESA, CAPACIDADE 100 FL, TAMANHO GRAMPO 23/6 A 23/23.</t>
+          <t>PASTA ARQUIVO, MATERIAL CARTÃO PLASTIFICADO, LOMBADA 20 MM, COR AZUL, CARACTERÍSTICAS ADICIONAIS COM ABA E ELÁSTICO, TAMANHO OFÍCIO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3707,7 +3747,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3716,11 +3756,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>GRAMPEADOR, MATERIAL METAL, TIPO MESA, CAPACIDADE até  110 FOLHAS, TAMANHO GRAMPO 23/6 A 23/23.</t>
+          <t>PASTA ARQUIVO TIPO REGISTRADORA AZ , MATERIAL CARTÃO, LOMBADA 55 MM, COR PRETA, TAMANHO OFÍCIO</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>10</v>
+        <v>413</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3736,12 +3776,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>30.16.2533</t>
+          <t>30.16.2572</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, COR PRETA, MATERIAL TRANSPARENTE. MARCA: BIC.</t>
+          <t>PRENDEDOR PAPEL, MATERIAL METAL, TIPO MOLA, TAMANHO MOLA 41 MM</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3750,31 +3790,41 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>313</v>
+        <v>39</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>PRENDEDOR PAPEL, MATERIAL METAL, TIPO MOLA, TAMANHO MOLA 41 MM</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>38</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>30.16.2534</t>
+          <t>30.16.2574</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, COR AZUL, MATERIAL TRANSPARENTE. MARCA: BIC.</t>
+          <t>CONJUNTO MULTIUSO ESCRITÓRIO, MATERIAL ACRÍLICO, APLICAÇÃO LÁPIS, ACESSÓRIOS REGUA, TESOURA, LAPIS, CANETA, BORRACHA,_ESQUADRO, MODELO BÁSICO.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3783,7 +3833,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3792,11 +3842,11 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, COR AZUL, MATERIAL TRANSPARENTE. MARCA: BIC.</t>
+          <t>CONJUNTO MULTIUSO ESCRITÓRIO, MATERIAL ACRÍLICO, APLICAÇÃO LÁPIS, ACESSÓRIOS REGUA, TESOURA, LAPIS, CANETA, BORRACHA,_ESQUADRO, MODELO BÁSICO.</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>391</v>
+        <v>4</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3812,12 +3862,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>30.16.2535</t>
+          <t>30.16.2591</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, COR VERMELHA, MATERIAL TRANSPARENTE. MARCA: BIC.</t>
+          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO RECICLADO, TIPO PONTA FELTRO,COR TINTA VARIADA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3826,7 +3876,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3845,12 +3895,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>30.16.2540</t>
+          <t>30.16.2594</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PORTA-FITA ADESIVA, MATERIAL PLÁSTICO, COR PRETA, COMPRIMENTO 21 CM, LARGURA 9 CM, CARACTERÍSTICAS ADICIONAIS COM CORTADOR FITA DE METAL E BASE ANTIDERRAPANTE.</t>
+          <t>LIVRO PROTOCOLO, QUANTIDADE FOLHAS 100 UN, COMPRIMENTO 220 MM, LARGURA 155 MM,TIPO CAPA DURA, CARACTERÍSTICAS ADICIONAIS IMPRESSÃO OFSETE, DUAS FACES, COR PRETA, MATERIAL CAPA PAPELÃO, GRAMATURA FOLHAS 75 G/M2, MATERIAL FOLHAS PAPEL APERGAMINHADO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3859,7 +3909,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3868,11 +3918,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>PORTA-FITA ADESIVA, MATERIAL PLÁSTICO, COR PRETA, COMPRIMENTO 21 CM, LARGURA 9 CM, CARACTERÍSTICAS ADICIONAIS COM CORTADOR FITA DE METAL E BASE ANTIDERRAPANTE.</t>
+          <t>LIVRO PROTOCOLO, QUANTIDADE FOLHAS 100 UN, COMPRIMENTO 220 MM, LARGURA 155 MM,TIPO CAPA DURA, CARACTERÍSTICAS ADICIONAIS IMPRESSÃO OFSETE, DUAS FACES, COR PRETA, MATERIAL CAPA PAPELÃO, GRAMATURA FOLHAS 75 G/M2, MATERIAL FOLHAS PAPEL APERGAMINHADO</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3888,21 +3938,21 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>30.16.2541</t>
+          <t>30.16.2609</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL CELOFANE TRANSPARENTE, TIPO MONOFACE, LARGURA 12 MM, COMPRIMENTO 50M, INCOLOR.</t>
+          <t>MINA GRAFITE, MATERIAL: GRAFITA, DIÂMETRO: 0,70 MM, COMPRIMENTO: 100 MM, DUREZA HB.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3921,12 +3971,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>30.16.2563</t>
+          <t>30.16.2667</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL PVC, TIPO SANFONADA, LARGURA 280 MM, ALTURA 390 MM, COR INCOLOR, CARACTERÍSTICAS ADICIONAIS ELÁSTICO, 31 DIVISÓRIAS, VISOR E ETIQUETA.</t>
+          <t>PAPEL CARTOLINA , MATERIAL CELULOSE VEGETAL, GRAMATURA 180 G/M2, CORES: DIVERSAS.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3935,7 +3985,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3944,15 +3994,15 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PASTA ARQUIVO, MATERIAL PAPELÃO REVESTIDO DE PVC, TIPO CATALOGO, LARG.250MM-ALT-345, COR PRETA.</t>
+          <t>PAPEL CARTOLINA , MATERIAL CELULOSE VEGETAL, GRAMATURA 180 G/M2, COR azul</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3964,21 +4014,21 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>30.16.2566</t>
+          <t>30.16.2669</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO PLASTIFICADO, LOMBADA 20 MM, COR AZUL, CARACTERÍSTICAS ADICIONAIS COM ABA E ELÁSTICO, TAMANHO OFÍCIO</t>
+          <t>PAPEL SULFITE, PACOTE COM 100 FOLHAS.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>PACOTE</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3987,11 +4037,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO , LOMBADA 20 MM, CARACTERÍSTICAS ADICIONAIS COM ABA E ELÁSTICO, TAMANHO OFÍCIO</t>
+          <t>PAPEL SULFITE, PACOTE COM 100 FOLHAS. cor amarelo</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>340</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -4007,21 +4057,21 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>30.16.2567</t>
+          <t>30.16.362</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO PLASTIFICADO, LOMBADA 20 MM, COR AZUL, CARACTERÍSTICAS ADICIONAIS COM ABA E ELÁSTICO, TAMANHO OFÍCIO</t>
+          <t>COLCHETE (BAILARINA), Nº 12, COMPRIMENTO DA HASTE 6,3CM, DIÂMETRO DA CABEÇA 14MM, PARA FIXAR ATÉ 270 FOLHAS, MATERIAL LATÃO, CAIXA COM 72 UNIDADES.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4030,15 +4080,15 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO PLASTIFICADO, LOMBADA 40 MM, COR AZUL, CARACTERÍSTICAS ADICIONAIS COM ABA E ELÁSTICO, TAMANHO OFÍCIO</t>
+          <t>COLCHETE (BAILARINA), Nº 12, COMPRIMENTO DA HASTE 6,3CM, DIÂMETRO DA CABEÇA 14MM, PARA FIXAR ATÉ 270 FOLHAS, MATERIAL LATÃO, CAIXA COM 72 UNIDADES.</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4050,12 +4100,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>30.16.2572</t>
+          <t>30.16.45</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PRENDEDOR PAPEL, MATERIAL METAL, TIPO MOLA, TAMANHO MOLA 41 MM</t>
+          <t>EXTRATOR DE GRAMPO</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4064,41 +4114,31 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>PRENDEDOR PAPEL, MATERIAL METAL, TIPO MOLA, TAMANHO MOLA 41 MM</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>39</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>claudeandela.cavalcanti@reitoria.ifpe.edu.br</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>30.16.2573</t>
+          <t>30.16.66</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO TRIPLA, COMPRIMENTO 370 MM, LARGURA 260 MM, ALTURA 50 MM, CARACTERÍSTICAS ADICIONAIS ARTICULAÇÃO EM ACRÍLICO</t>
+          <t>LIVRO PROTOCOLO</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4107,50 +4147,40 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAIXA CORRESPONDÊNCIA IMPILHÁVEL  </t>
-        </is>
-      </c>
-      <c r="G92" t="n">
-        <v>13</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>30.16.2574</t>
+          <t>30.16.684</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CONJUNTO MULTIUSO ESCRITÓRIO, MATERIAL ACRÍLICO, APLICAÇÃO LÁPIS, ACESSÓRIOS REGUA, TESOURA, LAPIS, CANETA, BORRACHA,_ESQUADRO, MODELO BÁSICO.</t>
+          <t>CLIPE II - TAMANHO 8/0, CAIXA COM 25 UN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>CAIXA</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4159,11 +4189,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>CONJUNTO MULTIUSO ESCRITÓRIO, MATERIAL ACRÍLICO, APLICAÇÃO LÁPIS, ACESSÓRIOS REGUA, TESOURA, LAPIS, CANETA, BORRACHA,_ESQUADRO, MODELO BÁSICO.</t>
+          <t>CLIPE II - TAMANHO 8/0, CAIXA COM 25 UN</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -4179,12 +4209,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>30.16.2591</t>
+          <t>30.17.350</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO RECICLADO, TIPO PONTA FELTRO,COR TINTA VARIADA</t>
+          <t>CD-R - DISCO LASER, GRAVÁVEL, 700 MB, 80 MIN.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4193,20 +4223,20 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve">PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO RECICLADO, TIPO PONTA FELTRO,COR TINTA azul </t>
+          <t>CD-R - DISCO LASER, GRAVÁVEL, 700 MB, 80 MIN.</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -4222,12 +4252,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>30.16.2594</t>
+          <t>30.17.519</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LIVRO PROTOCOLO, QUANTIDADE FOLHAS 100 UN, COMPRIMENTO 220 MM, LARGURA 155 MM,TIPO CAPA DURA, CARACTERÍSTICAS ADICIONAIS IMPRESSÃO OFSETE, DUAS FACES, COR PRETA, MATERIAL CAPA PAPELÃO, GRAMATURA FOLHAS 75 G/M2, MATERIAL FOLHAS PAPEL APERGAMINHADO</t>
+          <t>DVD-R, CAPACIDADE 4,7GB, TIPO GRAVÁVEL, MONOFACE</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4236,20 +4266,20 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>LIVRO PROTOCOLO, QUANTIDADE FOLHAS 100 UN, COMPRIMENTO 220 MM, LARGURA 155 MM,TIPO CAPA DURA, CARACTERÍSTICAS ADICIONAIS IMPRESSÃO OFSETE, DUAS FACES, COR PRETA, MATERIAL CAPA PAPELÃO, GRAMATURA FOLHAS 75 G/M2, MATERIAL FOLHAS PAPEL APERGAMINHADO</t>
+          <t>DVD-R, CAPACIDADE 4,7GB, TIPO GRAVÁVEL, MONOFACE</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -4265,71 +4295,81 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>30.16.2609</t>
+          <t>30.17.789</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MINA GRAFITE, MATERIAL: GRAFITA, DIÂMETRO: 0,70 MM, COMPRIMENTO: 100 MM, DUREZA HB.</t>
+          <t>SUPORTE FIXAÇÃO PROJETOR, MATERIAL FERRO, FORMATO DISCO, TIPO UNIVERSAL.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>SUPORTE FIXAÇÃO PROJETOR, MATERIAL FERRO, FORMATO DISCO, TIPO UNIVERSAL.</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>8</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>30.16.2667</t>
+          <t>30.19.224</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PAPEL CARTOLINA , MATERIAL CELULOSE VEGETAL, GRAMATURA 180 G/M2, CORES: DIVERSAS.</t>
+          <t>FILME PVC/PLÁSTICO, ESTIRÁVEL, DIMENSÕES 10CMX100M.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>ROLO</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>19 - MATERIAL DE ACONDICIONAMENTO E EMBALAGEM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>PAPEL CARTOLINA , MATERIAL CELULOSE VEGETAL, GRAMATURA 180 G/M2, COR VERDE</t>
+          <t>FILME PVC/PLÁSTICO, ESTIRÁVEL, DIMENSÕES 10CMX100M.</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4341,34 +4381,34 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>30.16.2669</t>
+          <t>30.22.500</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PAPEL SULFITE, PACOTE COM 100 FOLHAS.</t>
+          <t>PÁ COLETORA DE LIXO C/ MOVIMENTO BASCULANTE DA CAIXA DE RECOLHIMENTO</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>PACOTE</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>PAPEL SULFITE, PACOTE COM 100 FOLHAS.</t>
+          <t>PÁ COLETORA DE LIXO C/ MOVIMENTO BASCULANTE DA CAIXA DE RECOLHIMENTO</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -4384,55 +4424,45 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>30.16.362</t>
+          <t>30.23.936</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>COLCHETE (BAILARINA), Nº 12, COMPRIMENTO DA HASTE 6,3CM, DIÂMETRO DA CABEÇA 14MM, PARA FIXAR ATÉ 270 FOLHAS, MATERIAL LATÃO, CAIXA COM 72 UNIDADES.</t>
+          <t>CAMISA UNIFORME , MATERIAL FAVO VISCOSE E POLIESTER ) , MANGA CURTA COLARINHO EM V , COR BRANCA .</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>739</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>COLCHETE (BAILARINA), Nº 12, COMPRIMENTO DA HASTE 6,3CM, DIÂMETRO DA CABEÇA 14MM, PARA FIXAR ATÉ 270 FOLHAS, MATERIAL LATÃO, CAIXA COM 72 UNIDADES.</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>8</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>30.16.45</t>
+          <t>30.23.937</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>EXTRATOR DE GRAMPO</t>
+          <t>CONJUNTO DE UNIFORME ESPORTIVO</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4441,41 +4471,31 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>EXTRATOR DE GRAMPO</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>41</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>30.16.490</t>
+          <t>30.23.939</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>LÁPIS PRETO, CORPO DE MADEIRA, DIÂMETRO CARGA 2MM, DUREZA HB, FORMATO CORPO CILÍNDRICO, SEM BORRACHA APAGADORA, GRAFITE Nº2, MATERIAL CARGA GRAFITE</t>
+          <t>CAMISA UNIFORME ESCOLAR , MALHA FAVO ( VISCOSE E POLIESTER ) , MANGA CURTA , COLARINHO EM V .</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4484,41 +4504,31 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>42</v>
+        <v>404</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>LÁPIS PRETO, CORPO DE MADEIRA, DIÂMETRO CARGA 2MM, DUREZA HB, FORMATO CORPO CILÍNDRICO, SEM BORRACHA APAGADORA, GRAFITE Nº2, MATERIAL CARGA GRAFITE</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>43</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>30.16.66</t>
+          <t>30.23.940</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>LIVRO PROTOCOLO</t>
+          <t>CAMISA UNIFORME , MALHA FAVO ( POLISTER E VISCOSE ) , MANGA CURTA , COLARINHO E V , COR BRANCA.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4527,11 +4537,11 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -4546,55 +4556,45 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>30.16.684</t>
+          <t>30.23.941</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CLIPE II - TAMANHO 8/0, CAIXA COM 25 UN</t>
+          <t>CONJUNTO UNIFORME ESPORTIVO</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>CLIPE II - TAMANHO 8/0, CAIXA COM 25 UN</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>30</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>30.16.966</t>
+          <t>30.24.110</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TINTA PARA CARIMBO (AZUL) COMPONENTES ÁGUA, PIGMENTOS, ASPECTO FÍSICO LÍQUIDO,FRASCO COM 40 ML</t>
+          <t>SIFÃO SANFONADO SIMPLES (C/SAÍDA DE 40MM)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4603,24 +4603,24 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>TINTA PARA CARIMBO (AZUL) COMPONENTES ÁGUA, PIGMENTOS, ASPECTO FÍSICO LÍQUIDO,FRASCO COM 40 ML</t>
+          <t>SIFÃO SANFONADO SIMPLES (C/SAÍDA DE 40MM)</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>edmar.filho@reitoria.ifpe.edu.br</t>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -4632,12 +4632,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>30.17.350</t>
+          <t>30.24.1816</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CD-R - DISCO LASER, GRAVÁVEL, 700 MB, 80 MIN.</t>
+          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4646,20 +4646,20 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>CD-R - DISCO LASER, GRAVÁVEL, 700 MB, 80 MIN.</t>
+          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4675,12 +4675,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>30.17.519</t>
+          <t>30.24.2055</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DVD-R, CAPACIDADE 4,7GB, TIPO GRAVÁVEL, MONOFACE</t>
+          <t>FECHADURA MATERIAL CAIXA AÇO INOXIDÁVEL MARCA SOPRANO.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4689,20 +4689,20 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>DVD-R, CAPACIDADE 4,7GB, TIPO GRAVÁVEL, MONOFACE</t>
+          <t>FECHADURA MATERIAL CAIXA AÇO INOXIDÁVEL</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4718,12 +4718,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>30.17.789</t>
+          <t>30.24.2646</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SUPORTE FIXAÇÃO PROJETOR, MATERIAL FERRO, FORMATO DISCO, TIPO UNIVERSAL.</t>
+          <t>TORNEIRA, MATERIAL CORPO METAL, TIPO PIA, 3/4 POL, ACABAMENTO SUPERFICIAL CROMADO, LONGA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4732,16 +4732,16 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>SUPORTE FIXAÇÃO PROJETOR, MATERIAL FERRO, FORMATO DISCO, TIPO UNIVERSAL.</t>
+          <t>TORNEIRA, MATERIAL CORPO METAL, TIPO PIA, 3/4 POL, ACABAMENTO SUPERFICIAL CROMADO, LONGA</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -4761,12 +4761,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>30.19.114</t>
+          <t>30.24.2722</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CARRAFA PLASTICA CAPACIDADE 500ML, APLICAÇÃO AGUA, COM TAMPA ROSCAVEL, COR BRANCA TIPO SQUEEZE</t>
+          <t>CHUVEIRO NÃO ELETRICO, MATERIAL PVC, TIPO COM BRAÇO, SEM REGISTRO, COR BRANCA, BITOLA 1/2 POL</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4775,64 +4775,84 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>19 - MATERIAL DE ACONDICIONAMENTO E EMBALAGEM</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>CHUVEIRO NÃO ELETRICO, MATERIAL PVC, TIPO COM BRAÇO, SEM REGISTRO, COR BRANCA, BITOLA 1/2 POL</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>8</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>30.19.224</t>
+          <t>30.24.2910</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FILME PVC/PLÁSTICO, ESTIRÁVEL, DIMENSÕES 10CMX100M.</t>
+          <t>CONEXÃO HIDRÁULICA LUVA PVC 25MM LISA.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ROLO</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>19 - MATERIAL DE ACONDICIONAMENTO E EMBALAGEM</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>CONEXÃO HIDRÁULICA LUVA PVC 25MM LISA.</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>18</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>30.22.500</t>
+          <t>30.24.3223</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PÁ COLETORA DE LIXO C/ MOVIMENTO BASCULANTE DA CAIXA DE RECOLHIMENTO</t>
+          <t>Adesivo conexao hidraulica composicao acetona metilcetona tolual e resina PVC, przo de validade 1 ano apos fabricacao, aplicacao tubos e conexoes de pvc, apresentacao tubo de 75 GR</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4841,20 +4861,20 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>PÁ COLETORA DE LIXO C/ MOVIMENTO BASCULANTE DA CAIXA DE RECOLHIMENTO</t>
+          <t>Adesivo conexao hidraulica composicao acetona metilcetona tolual e resina PVC, przo de validade 1 ano apos fabricacao, aplicacao tubos e conexoes de pvc, apresentacao tubo de 75 GR</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -4870,12 +4890,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>30.22.540</t>
+          <t>30.24.3232</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PÁ COLETORA LIXO, MATERIAL COLETOR ALUMÍNIO ZINCADO, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 80CM</t>
+          <t>Conexao hidraulica, material pvc cloreto de polivinila, tipo joelho 90 graus, tipo fixacao soldavel, bitola lado soldavel 25mm, aplicacao engenharia</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4884,11 +4904,11 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -4903,12 +4923,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>30.22.569</t>
+          <t>30.24.3281</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>AGUA SANITARIA. 1L</t>
+          <t>Parafuso de Fenda Phillips Cabeça Chata com Bucha Universal de 10mm</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4917,53 +4937,63 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Parafuso de Fenda Phillips Cabeça Chata com Bucha Universal de 10mm</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>90</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>30.22.653</t>
+          <t>30.26.1190</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DISPENSER PARA PAPEL TOALHA, INTERFOLHADO. CARACT.: PAPELEIRA PARA PAPEL TOALHA. INTERFOLHA: 2 OU 3 DOBRAS. CAPACIDADE: PACOTE 1.000 FLS. MARCA: BELLPLUS.</t>
+          <t>CABO ELÉTRICO, UNIPOLAR, FLEXÍVEL, COBRE, 4MM, 750V, PRETO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>DISPENSER PARA PAPEL TOALHA, INTERFOLHADO. CARACT.: PAPELEIRA PARA PAPEL TOALHA. INTERFOLHA: 2 OU 3 DOBRAS. CAPACIDADE: PACOTE 1.000 FLS</t>
+          <t>CABO ELÉTRICO, UNIPOLAR, FLEXÍVEL, COBRE, 4MM, 750V, PRETO</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4979,67 +5009,77 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>30.22.665</t>
+          <t>30.26.1280</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ÁLCOOL ETÍLICO, LIMPEZA DE AMBIENTES, CONCENTRAÇÃO 92,8º INPM.</t>
+          <t>DISJUNTOR BAIXA TENSÃO, TERMOMAGNÉTICO, 1 POLO, 25A, 220V.</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>DISJUNTOR BAIXA TENSÃO, TERMOMAGNÉTICO, 1 POLO, 25A, 220V.</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>10</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>30.22.688</t>
+          <t>30.26.1410</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CONJUNTO LIXEIRA SELETIVA COM 4 UNIDADES, 50L, CORES AZUL, VERMELHA, VERDE E AMARELA.</t>
+          <t>30.26.1409 CABO ELETRICO FLEXIVEL, MATERIAL COBRE ELETROLITICO, REVESTIMENTO PVC. TEMPERATURA 70ºC. TENSÃO ISOLAMENTO 750 V, COR VERDE, SEÇÃO NOMINAL CONDUTOR 4MM2, BITOLA CONDUTOR 4 MM2, QUANTIDADES FIO 1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>METRO</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>CONJUNTO LIXEIRA SELETIVA COM 4 UNIDADES, 50L, CORES AZUL, VERMELHA, VERDE E AMARELA.</t>
+          <t>30.26.1409 CABO ELETRICO FLEXIVEL, MATERIAL COBRE ELETROLITICO, REVESTIMENTO PVC. TEMPERATURA 70ºC. TENSÃO ISOLAMENTO 750 V, COR VERDE, SEÇÃO NOMINAL CONDUTOR 4MM2, BITOLA CONDUTOR 4 MM2, QUANTIDADES FIO 1</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -5055,17 +5095,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>30.22.695</t>
+          <t>30.26.194</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>VASSOURA JARDINAGEM, TIPO FIXA, MATERIAL CERDAS PALHA, TIPO LÂMINA CHATA, COM CABO.</t>
+          <t>CABO ELÉTRICO - 2,5 MM², COR PRETO , FLEXIVEL.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -5073,12 +5113,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>VASSOURA rastelo para JARDINAGEM, TIPO FIXA, MATERIAL CERDAS PALHA, TIPO LÂMINA CHATA, COM CABO.</t>
+          <t>CABO ELÉTRICO - 2,5 MM², COR PRETO , FLEXIVEL.</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -5098,12 +5138,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>30.22.712</t>
+          <t>30.26.2480</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>JOGO DE TAPETES PARA BANHEIRO.</t>
+          <t>CABO VGA - MACHO / MACHO - COMPRIMENTO 10 METROS.</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5116,98 +5156,128 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>CABO VGA - MACHO / MACHO - COMPRIMENTO 10 METROS.</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>30.23.933</t>
+          <t>30.26.25</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>JALECO LONGO COR BRANCA , TECIDO OXFORD, GOLA EM V , 5 BOTÕES E 2 BOLSOS.</t>
+          <t>CABO ELÉTRICO, UNIPOLAR, FLEXÍVEL, COBRE, 2,5MM, 750V, VERDE</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>CABO ELÉTRICO, UNIPOLAR, FLEXÍVEL, COBRE, 2,5MM, 750V, VERDE</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>3</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>30.23.935</t>
+          <t>30.26.2898</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>VESTUÁRIO HOSPITALAR TIPO CALÇA E BLUSA , MATERIAL BRIM , TAMANHO XGG , MANGA CURTA , ESTERILIZÁVEL.</t>
+          <t>Cabo Elétrico Flexível, 4MM, Cobre, 750V, Amarelo.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>Peça com 100m</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Cabo Elétrico Flexível, 4MM, Cobre, 750V, Amarelo.</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>30.24.110</t>
+          <t>30.26.2899</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SIFÃO SANFONADO SIMPLES (C/SAÍDA DE 40MM)</t>
+          <t>Cabo Elétrico Flexível, 2,5MM, Cobre, 750V, Azul.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>Peça com 100m</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -5215,12 +5285,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>SIFÃO SANFONADO SIMPLES (C/SAÍDA DE 40MM)</t>
+          <t>Cabo Elétrico Flexível, 2,5MM, Cobre, 750V, Azul.</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -5240,12 +5310,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>30.24.1816</t>
+          <t>30.26.3102</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
+          <t>TOMADA, MODELO PLUGUE, TIPO FÊMEA, FORMATO CONTATO PINO CILÍNDRICO, CORRENTE NOMINAL 20 A, TENSÃO NOMINAL 250 V, NÚMERO PÓLOS 2 P + T</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5254,20 +5324,20 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
+          <t>TOMADA, MODELO PLUGUE, TIPO FÊMEA, FORMATO CONTATO PINO CILÍNDRICO, CORRENTE NOMINAL 20 A, TENSÃO NOMINAL 250 V, NÚMERO PÓLOS 2 P   T</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -5283,12 +5353,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>30.24.2055</t>
+          <t>30.26.429</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FECHADURA MATERIAL CAIXA AÇO INOXIDÁVEL MARCA SOPRANO.</t>
+          <t>SOQUETE LÂMPADA FLUORESCENTE, TIPO ANTIVIBRATÓRIO, 40W, TENSÃO 220V.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5297,20 +5367,20 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>FECHADURA MATERIAL CAIXA AÇO INOXIDÁVEL MARCA SOPRANO.</t>
+          <t>PORTA STARTER COM RABICHO 02 FUROS DE 4MM DE DIAMETRO PARA FIXAÇÃO</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -5326,12 +5396,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>30.24.2646</t>
+          <t>30.28.344</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TORNEIRA, MATERIAL CORPO METAL, TIPO PIA, 3/4 POL, ACABAMENTO SUPERFICIAL CROMADO, LONGA</t>
+          <t>Máscara multiuso, poliéster e algodão, uso reutilizável, proteção individual, tripla camada, com elástico.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5340,41 +5410,31 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>9</v>
+        <v>817</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>TORNEIRA, MATERIAL CORPO METAL, TIPO PIA, 3/4 POL, ACABAMENTO SUPERFICIAL CROMADO, LONGA</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>8</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>30.24.2722</t>
+          <t>30.28.350</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CHUVEIRO NÃO ELETRICO, MATERIAL PVC, TIPO COM BRAÇO, SEM REGISTRO, COR BRANCA, BITOLA 1/2 POL</t>
+          <t>ras reutilizáveis, com 03 (tres) camadas de tecido: uma camada de tecido não impermeável na parte frontal, tecido respirável no meio e algodão na parte em contato com a superfície do rosto. Algodao (anatomicas). COM LOGOMARCA DO ORGAO. ABNT PR 1002</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5383,20 +5443,20 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>9</v>
+        <v>1440</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>CHUVEIRO NÃO ELETRICO, MATERIAL PVC, TIPO COM BRAÇO, SEM REGISTRO, COR BRANCA, BITOLA 1/2 POL</t>
+          <t>ras reutilizáveis, com 03 (tres) camadas de tecido: uma camada de tecido não impermeável na parte frontal, tecido respirável no meio e algodão na parte em contato com a superfície do rosto. Algodao (anatomicas). COM LOGOMARCA DO ORGAO. ABNT PR 1002</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>9</v>
+        <v>2200</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -5412,12 +5472,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>30.24.2910</t>
+          <t>30.36.466</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CONEXÃO HIDRÁULICA LUVA PVC 25MM LISA.</t>
+          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 2 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5426,41 +5486,31 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>16</v>
+        <v>1200</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>CONEXÃO HIDRÁULICA LUVA PVC 25MM LISA.</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
-        <v>15</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
+          <t>36 - MATERIAL HOSPITALAR</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>30.24.3223</t>
+          <t>30.36.473</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Adesivo conexao hidraulica composicao acetona metilcetona tolual e resina PVC, przo de validade 1 ano apos fabricacao, aplicacao tubos e conexoes de pvc, apresentacao tubo de 75 GR</t>
+          <t>DISPENSER PAPEL TOALHA, MATERIAL AÇO, TIPO INTERFOLHA, COR BRANCA, COM CHAVE.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5469,20 +5519,20 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Adesivo conexao hidraulica composicao acetona metilcetona tolual e resina PVC, przo de validade 1 ano apos fabricacao, aplicacao tubos e conexoes de pvc, apresentacao tubo de 75 GR</t>
+          <t>Dispenser Papel Toalha Bobina Alavanca, COR BRANCA, COM CHAVE.</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -5498,12 +5548,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>30.24.3232</t>
+          <t>30.36.489</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Conexao hidraulica, material pvc cloreto de polivinila, tipo joelho 90 graus, tipo fixacao soldavel, bitola lado soldavel 25mm, aplicacao engenharia</t>
+          <t>TERMÔMETRO, TIPO DIGITAL COM ALARME, VISOR EM CRISTAL LÍQUIDO, MEDIÇÃO TEMPERATURA 40 A 95 ºC, APLICAÇÃO ALIMENTOS, MATERIAL PLÁSTICO, À PROVA D'ÁGUA, BATERIA/PILHA.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5512,53 +5562,49 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
+          <t>36 - MATERIAL HOSPITALAR</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>TERMÔMETRO, TIPO DIGITAL COM ALARME, VISOR EM CRISTAL LÍQUIDO, MEDIÇÃO TEMPERATURA 40 A 95 ºC, APLICAÇÃO ALIMENTOS, MATERIAL PLÁSTICO, À PROVA D'ÁGUA, BATERIA/PILHA.</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>7</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
+        </is>
+      </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>both</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>30.24.3281</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Parafuso de Fenda Phillips Cabeça Chata com Bucha Universal de 10mm</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>98</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
-        </is>
-      </c>
+          <t>30.16.1096</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Parafuso de Fenda Phillips Cabeça Chata com Bucha Universal de 10mm</t>
+          <t>COLCHETE (BAILARINA), Nº 15, COMPRIMENTO DA HASTE 10CM, DIÂMETRO DA CABEÇA 14MM, PARA FIXAR ATÉ 450 FOLHAS, MATERIAL LATÃO, CAIXA COM 72 UNIDADES.</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -5567,41 +5613,27 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>right_only</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>30.26.1190</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>CABO ELÉTRICO, UNIPOLAR, FLEXÍVEL, COBRE, 4MM, 750V, PRETO</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>1</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
-        </is>
-      </c>
+          <t>30.16.2573</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t xml:space="preserve">CABO ELÉTRICO, UNIPOLAR, FLEXÍVEL, COBRE, 4MM, 750V, PRETO pacote com 100 metros </t>
+          <t>Porta Correspondência Empilhável 7 x 27 x 8 cm - Cor vermelha</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -5610,41 +5642,27 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>right_only</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>30.26.1280</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>DISJUNTOR BAIXA TENSÃO, TERMOMAGNÉTICO, 1 POLO, 25A, 220V.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>10</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
-        </is>
-      </c>
+          <t>30.16.966</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>DISJUNTOR BAIXA TENSÃO, TERMOMAGNÉTICO, 1 POLO, 25A, 220V.</t>
+          <t>TINTA PARA CARIMBO (AZUL) COMPONENTES ÁGUA, PIGMENTOS, ASPECTO FÍSICO LÍQUIDO,FRASCO COM 40 ML</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
@@ -5653,642 +5671,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>30.26.1410</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>30.26.1409 CABO ELETRICO FLEXIVEL, MATERIAL COBRE ELETROLITICO, REVESTIMENTO PVC. TEMPERATURA 70ºC. TENSÃO ISOLAMENTO 750 V, COR VERDE, SEÇÃO NOMINAL CONDUTOR 4MM2, BITOLA CONDUTOR 4 MM2, QUANTIDADES FIO 1</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>METRO</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>2</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">30.26.1409 CABO ELETRICO FLEXIVEL, MATERIAL COBRE ELETROLITICO, REVESTIMENTO PVC. TEMPERATURA 70ºC. TENSÃO ISOLAMENTO 750 V, COR VERDE, SEÇÃO NOMINAL CONDUTOR 4MM2, BITOLA CONDUTOR 4 MM2, QUANTIDADES FIO 1 pacote com 100 metros </t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>2</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>30.26.194</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>CABO ELÉTRICO - 2,5 MM², COR PRETO , FLEXIVEL.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>3</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CABO ELÉTRICO - 2,5 MM², COR PRETO , FLEXIVEL. Pacote com 100 metros </t>
-        </is>
-      </c>
-      <c r="G132" t="n">
-        <v>3</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>30.26.2480</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>CABO VGA - MACHO / MACHO - COMPRIMENTO 10 METROS.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>1</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>CABO VGA - MACHO / MACHO - COMPRIMENTO 10 METROS.</t>
-        </is>
-      </c>
-      <c r="G133" t="n">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>maria.rozimar@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>30.26.25</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>CABO ELÉTRICO, UNIPOLAR, FLEXÍVEL, COBRE, 2,5MM, 750V, VERDE</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>3</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CABO ELÉTRICO, UNIPOLAR, FLEXÍVEL, COBRE, 2,5MM, 750V, VERDE pacote com 100 metros </t>
-        </is>
-      </c>
-      <c r="G134" t="n">
-        <v>3</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>30.26.2898</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Cabo Elétrico Flexível, 4MM, Cobre, 750V, Amarelo.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Peça com 100m</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>2</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cabo Elétrico Flexível, 4MM, Cobre, 750V, Amarelo. Pacote com 100 metros </t>
-        </is>
-      </c>
-      <c r="G135" t="n">
-        <v>2</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>30.26.2899</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Cabo Elétrico Flexível, 2,5MM, Cobre, 750V, Azul.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Peça com 100m</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>3</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cabo Elétrico Flexível, 2,5MM, Cobre, 750V, Azul. Pacote com 100 metros </t>
-        </is>
-      </c>
-      <c r="G136" t="n">
-        <v>3</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>30.26.3102</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>TOMADA, MODELO PLUGUE, TIPO FÊMEA, FORMATO CONTATO PINO CILÍNDRICO, CORRENTE NOMINAL 20 A, TENSÃO NOMINAL 250 V, NÚMERO PÓLOS 2 P + T</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>1</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>left_only</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>30.26.429</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>SOQUETE LÂMPADA FLUORESCENTE, TIPO ANTIVIBRATÓRIO, 40W, TENSÃO 220V.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>50</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>SOQUETE LÂMPADA FLUORESCENTE, TIPO ANTIVIBRATÓRIO, 40W, TENSÃO 220V.</t>
-        </is>
-      </c>
-      <c r="G138" t="n">
-        <v>50</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>30.28.344</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Máscara multiuso, poliéster e algodão, uso reutilizável, proteção individual, tripla camada, com elástico.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>817</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>( Mascara Descartavel Cirurgica 50Und Tripla Elastico Anvisa )</t>
-        </is>
-      </c>
-      <c r="G139" t="n">
-        <v>16</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>30.28.350</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>ras reutilizáveis, com 03 (tres) camadas de tecido: uma camada de tecido não impermeável na parte frontal, tecido respirável no meio e algodão na parte em contato com a superfície do rosto. Algodao (anatomicas). COM LOGOMARCA DO ORGAO. ABNT PR 1002</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>1440</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>ras reutilizáveis, com 03 (tres) camadas de tecido: uma camada de tecido não impermeável na parte frontal, tecido respirável no meio e algodão na parte em contato com a superfície do rosto. Algodao (anatomicas). COM LOGOMARCA DO ORGAO. ABNT PR 1002</t>
-        </is>
-      </c>
-      <c r="G140" t="n">
-        <v>6300</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>30.36.466</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 2 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Saco para Lixo Infectante Branco 30 Litros com 100 Unidades</t>
-        </is>
-      </c>
-      <c r="G141" t="n">
-        <v>22</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>30.36.467</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>DISPENSER HIGIENIZADOR, MATERIAL ACRÍLICO, CAPACIDADE 800 ML, TIPO FIXAÇÃO PAREDE, COR TRANSPARENTE, APLICAÇÃO MÃOS.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>1</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>DISPENSER HIGIENIZADOR, MATERIAL plástico, CAPACIDADE 800 ML, TIPO FIXAÇÃO PAREDE, COR branca, APLICAÇÃO MÃOS.</t>
-        </is>
-      </c>
-      <c r="G142" t="n">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>30.36.470</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>BOMBONA, MATERIAL PLÁSTICO, CAPACIDADE 5 L, APLICAÇÃO LABORATÓRIO, COM TAMPA.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>20</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>BOMBONA, MATERIAL PLÁSTICO, CAPACIDADE 5 L, APLICAÇÃO LABORATÓRIO, COM TAMPA.</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
-        <v>20</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>30.36.473</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>DISPENSER PAPEL TOALHA, MATERIAL AÇO, TIPO INTERFOLHA, COR BRANCA, COM CHAVE.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>9</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>DISPENSER PAPEL TOALHA, MATERIAL plástico, TIPO alavanca, COR BRANCA, COM CHAVE.</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>9</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>30.36.489</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>TERMÔMETRO, TIPO DIGITAL COM ALARME, VISOR EM CRISTAL LÍQUIDO, MEDIÇÃO TEMPERATURA 40 A 95 ºC, APLICAÇÃO ALIMENTOS, MATERIAL PLÁSTICO, À PROVA D'ÁGUA, BATERIA/PILHA.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>7</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>TERMÔMETRO, TIPO DIGITAL COM ALARME, VISOR EM CRISTAL LÍQUIDO, MEDIÇÃO TEMPERATURA 40 A 95 ºC, APLICAÇÃO ALIMENTOS, MATERIAL PLÁSTICO, À PROVA D'ÁGUA, BATERIA/PILHA.</t>
-        </is>
-      </c>
-      <c r="G145" t="n">
-        <v>7</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>thiago.galdino@abreuelima.ifpe.edu.br</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>both</t>
+          <t>right_only</t>
         </is>
       </c>
     </row>
